--- a/Src/Data/Tables/CapacityDefine.xlsx
+++ b/Src/Data/Tables/CapacityDefine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project Workspace\GGJ_SHU_SFA\Src\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4A91A-5AFB-49E8-BE5D-90CCE900B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD388F4-FAAE-41AF-982B-38A39C5E6AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C72F13D3-3876-441E-872D-DF53E33FECC0}" name="表1" displayName="表1" ref="A3:D23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A3:D23" xr:uid="{C72F13D3-3876-441E-872D-DF53E33FECC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C72F13D3-3876-441E-872D-DF53E33FECC0}" name="表1" displayName="表1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A3:D27" xr:uid="{C72F13D3-3876-441E-872D-DF53E33FECC0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{91C9D62F-3116-4994-AD04-30BFB7B8C514}" name="Key" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{28C67671-5340-42EB-824A-ED875272DE88}" name="Key2" dataDxfId="2"/>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,32 +676,30 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
+      <c r="B4" s="6">
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="6">
-        <v>2</v>
+      <c r="B5" s="5">
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
+      <c r="D5" s="5">
+        <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -709,14 +707,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.9</v>
       </c>
-      <c r="D6" s="5">
-        <v>3</v>
+      <c r="D6" s="6">
+        <v>2</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -724,14 +722,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6">
-        <v>4</v>
+      <c r="B7" s="5">
+        <v>3</v>
       </c>
       <c r="C7" s="6">
         <v>0.8</v>
       </c>
-      <c r="D7" s="6">
-        <v>4</v>
+      <c r="D7" s="5">
+        <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -740,60 +738,58 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
         <v>0.7</v>
       </c>
       <c r="D8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
+        <v>5</v>
       </c>
       <c r="C9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5">
-        <v>3</v>
+      <c r="B11" s="6">
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -802,13 +798,13 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -817,30 +813,28 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6">
+        <v>4</v>
       </c>
       <c r="C14" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -849,75 +843,73 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
       <c r="C16" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4</v>
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D18" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="6">
+        <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -926,13 +918,13 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D20" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -940,30 +932,30 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="5">
-        <v>3</v>
+      <c r="B21" s="6">
+        <v>5</v>
       </c>
       <c r="C21" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3</v>
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
       <c r="B22" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -971,13 +963,13 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -985,42 +977,66 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="6">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="6">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1029,7 +1045,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1038,7 +1054,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1047,7 +1063,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1056,8 +1072,8 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1065,7 +1081,7 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1074,7 +1090,7 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1083,13 +1099,31 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Src/Data/Tables/CapacityDefine.xlsx
+++ b/Src/Data/Tables/CapacityDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project Workspace\GGJ_SHU_SFA\Src\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD388F4-FAAE-41AF-982B-38A39C5E6AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4226B0-457B-424B-882D-D022F2F81EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="6">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="D26" s="6">
         <v>4</v>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
